--- a/DesignerConfigs/Excel/__tables__.xlsx
+++ b/DesignerConfigs/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="152">
   <si>
     <t>##var</t>
   </si>
@@ -115,7 +115,16 @@
     <t>TbI18N</t>
   </si>
   <si>
-    <t>i18n.xlsx</t>
+    <t>I18N/i18n.xlsx</t>
+  </si>
+  <si>
+    <t>InterfaceText</t>
+  </si>
+  <si>
+    <t>TbInterfaceText</t>
+  </si>
+  <si>
+    <t>I18N/InterfaceText.xlsx</t>
   </si>
   <si>
     <t>Achievement</t>
@@ -468,10 +477,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -504,11 +513,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,6 +542,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -527,11 +565,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,24 +605,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,52 +637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,25 +670,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,49 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,97 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,11 +1016,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,6 +1051,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,6 +1096,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1080,177 +1113,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1258,28 +1267,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1306,13 +1315,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1330,54 +1339,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1644,15 +1653,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1662,7 +1671,7 @@
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="22.25" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.3839285714286" customWidth="1"/>
+    <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
     <col min="12" max="12" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1744,7 +1753,7 @@
       </c>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="50.75" spans="1:13">
+    <row r="3" s="1" customFormat="1" ht="57.75" spans="1:13">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +1784,7 @@
       </c>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" customFormat="1" ht="13.15" spans="1:13">
+    <row r="4" customFormat="1" ht="15" spans="1:13">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>31</v>
@@ -1798,881 +1807,904 @@
       <c r="L4" s="10"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" customFormat="1" spans="1:13">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="21"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="22"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="21"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="22"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="22"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="21"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="22"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="21"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="22"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="21"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="22"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="21"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="22"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="21"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="22"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="21"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="22"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="21"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="22"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="21"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="22"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="21"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="22"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="D29" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="21"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="22"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="D31" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="21"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="22"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="D33" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="21"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="22"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="21"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="D36" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="22"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="21"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="D37" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="21"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="D38" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="22"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="21"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="21"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="22"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="D40" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="22"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="21"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="21"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="23"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
